--- a/ps/web开发注意事项.xlsx
+++ b/ps/web开发注意事项.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>chrome</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>拖动排序时收起全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn重复点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn点击后反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长字符串是否截断换行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,6 +196,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -191,9 +206,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,143 +504,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J10:U23"/>
+  <dimension ref="J10:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:K27"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="10" max="10" width="27.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="5" customWidth="1"/>
-    <col min="13" max="21" width="9" style="5"/>
+    <col min="10" max="10" width="27.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="2" customWidth="1"/>
+    <col min="13" max="21" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="10" spans="10:21">
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="5" t="s">
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" spans="10:21">
-      <c r="J11" s="3"/>
-      <c r="K11" s="5" t="s">
+      <c r="J11" s="4"/>
+      <c r="K11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="2">
         <v>360</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="10:21">
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="10:21">
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="10:21">
+      <c r="J14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="10:21">
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="10:21">
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="10:21">
-      <c r="J13" s="5" t="s">
+    <row r="20" spans="10:10">
+      <c r="J20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="10:21">
-      <c r="J14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="10:21">
-      <c r="J15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="10:21">
-      <c r="J16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10">
-      <c r="J18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10">
-      <c r="J19" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10">
-      <c r="J20" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10">
-      <c r="J21" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="10:10">
-      <c r="J22" s="5" t="s">
+    <row r="24" spans="10:10">
+      <c r="J24" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="10:10">
-      <c r="J23" s="5" t="s">
+    <row r="25" spans="10:10">
+      <c r="J25" s="2" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="26" spans="10:10">
+      <c r="J26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="J12:U26">
+    <sortCondition ref="J12"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="Q10:U10"/>

--- a/ps/web开发注意事项.xlsx
+++ b/ps/web开发注意事项.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>chrome</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,22 @@
   </si>
   <si>
     <t>长字符串是否截断换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交时的大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input改变时才XHR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面元素应该从0开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面元素应该能反应XHR失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,12 +207,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -504,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J10:U26"/>
+  <dimension ref="J10:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -519,33 +538,33 @@
   </cols>
   <sheetData>
     <row r="10" spans="10:21">
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
     </row>
     <row r="11" spans="10:21">
-      <c r="J11" s="4"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,6 +603,9 @@
       <c r="J12" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="10:21">
       <c r="J13" s="2" t="s">
@@ -605,58 +627,81 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="10:10">
+    <row r="17" spans="10:11">
       <c r="J17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="10:11">
       <c r="J18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="10:10">
+    <row r="19" spans="10:11">
       <c r="J19" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="10:10">
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
       <c r="J20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="10:10">
+    <row r="21" spans="10:11">
       <c r="J21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="10:10">
+    <row r="22" spans="10:11">
       <c r="J22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="10:10">
+    <row r="23" spans="10:11">
       <c r="J23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="10:10">
+    <row r="24" spans="10:11">
       <c r="J24" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="10:10">
+    <row r="25" spans="10:11">
       <c r="J25" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="10:10">
+    <row r="26" spans="10:11">
       <c r="J26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="27" spans="10:11">
+      <c r="J27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11">
+      <c r="J28" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11">
+      <c r="J29" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11">
+      <c r="J30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="J12:U26">
+  <sortState ref="J13:M29">
     <sortCondition ref="J12"/>
   </sortState>
   <mergeCells count="3">

--- a/ps/web开发注意事项.xlsx
+++ b/ps/web开发注意事项.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>chrome</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,14 @@
   </si>
   <si>
     <t>页面元素应该能反应XHR失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block滚轮问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘按下，键盘松开，复制粘贴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,12 +215,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J10:U30"/>
+  <dimension ref="J10:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -538,33 +552,33 @@
   </cols>
   <sheetData>
     <row r="10" spans="10:21">
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" spans="10:21">
-      <c r="J11" s="5"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,6 +712,16 @@
     <row r="30" spans="10:11">
       <c r="J30" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11">
+      <c r="J31" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11">
+      <c r="J32" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ps/web开发注意事项.xlsx
+++ b/ps/web开发注意事项.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>chrome</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,10 @@
   </si>
   <si>
     <t>键盘按下，键盘松开，复制粘贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口大小，分辨率大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,12 +219,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -537,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J10:U32"/>
+  <dimension ref="J10:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -552,33 +559,33 @@
   </cols>
   <sheetData>
     <row r="10" spans="10:21">
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
     </row>
     <row r="11" spans="10:21">
-      <c r="J11" s="7"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,6 +729,11 @@
     <row r="32" spans="10:11">
       <c r="J32" s="5" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
